--- a/HW10/活頁簿1.xlsx
+++ b/HW10/活頁簿1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meg/Downloads/ML/HW10/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25289616-95EE-4F49-8854-A9BB055B9D25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E9EF911-48E1-2849-B33F-26819D23C859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3580" yWindow="18500" windowWidth="25600" windowHeight="15500" xr2:uid="{20194861-1EDB-1948-AF40-2A818C5766E5}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="56">
   <si>
     <t>ifgsm_loss = 13.05267</t>
   </si>
@@ -197,6 +197,26 @@
   </si>
   <si>
     <t>kaggle=0.14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>model_names = ['resnet56_cifar10','nin_cifar10','densenet100_k12_cifar10','densenet40_k12_cifar10',</t>
+  </si>
+  <si>
+    <t>mifgsm_acc = 0.06000, mifgsm_loss = 8.75860</t>
+  </si>
+  <si>
+    <t>kaggle=0.15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>model_names = ['resnet56_cifar10','nin_cifar10','densenet100_k12_cifar10','ror3_164_cifar10',</t>
+  </si>
+  <si>
+    <t>mifgsm_acc = 0.09500, mifgsm_loss = 8.51063</t>
+  </si>
+  <si>
+    <t>kaggle=	0.150</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -204,7 +224,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -244,6 +264,14 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -267,7 +295,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -281,6 +309,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -597,10 +628,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E19DDCB-3F46-AF45-BC8D-19DC9C644D6F}">
-  <dimension ref="A1:G105"/>
+  <dimension ref="A1:G124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C94" sqref="C94"/>
+    <sheetView tabSelected="1" topLeftCell="A98" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C107" sqref="C107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1006,7 +1037,7 @@
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="4" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
@@ -1090,6 +1121,167 @@
       <c r="F105" s="4"/>
       <c r="G105" s="4"/>
     </row>
+    <row r="108" spans="1:7">
+      <c r="A108" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B108" s="4"/>
+      <c r="C108" s="4"/>
+      <c r="D108" s="4"/>
+      <c r="E108" s="4"/>
+      <c r="F108" s="4"/>
+      <c r="G108" s="4"/>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B109" s="4"/>
+      <c r="C109" s="4"/>
+      <c r="D109" s="4"/>
+      <c r="E109" s="4"/>
+      <c r="F109" s="4"/>
+      <c r="G109" s="4"/>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B110" s="4"/>
+      <c r="C110" s="4"/>
+      <c r="D110" s="4"/>
+      <c r="E110" s="4"/>
+      <c r="F110" s="4"/>
+      <c r="G110" s="4"/>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B111" s="4"/>
+      <c r="C111" s="4"/>
+      <c r="D111" s="4"/>
+      <c r="E111" s="4"/>
+      <c r="F111" s="4"/>
+      <c r="G111" s="4"/>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" s="4"/>
+      <c r="B112" s="4"/>
+      <c r="C112" s="4"/>
+      <c r="D112" s="4"/>
+      <c r="E112" s="4"/>
+      <c r="F112" s="4"/>
+      <c r="G112" s="4"/>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B113" s="4"/>
+      <c r="C113" s="4"/>
+      <c r="D113" s="4"/>
+      <c r="E113" s="4"/>
+      <c r="F113" s="4"/>
+      <c r="G113" s="4"/>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B114" s="4"/>
+      <c r="C114" s="4"/>
+      <c r="D114" s="4"/>
+      <c r="E114" s="4"/>
+      <c r="F114" s="4"/>
+      <c r="G114" s="4"/>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B115" s="4"/>
+      <c r="C115" s="4"/>
+      <c r="D115" s="4"/>
+      <c r="E115" s="4"/>
+      <c r="F115" s="4"/>
+      <c r="G115" s="4"/>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B118" s="4"/>
+      <c r="C118" s="4"/>
+      <c r="D118" s="4"/>
+      <c r="E118" s="4"/>
+      <c r="F118" s="4"/>
+      <c r="G118" s="4"/>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B119" s="4"/>
+      <c r="C119" s="4"/>
+      <c r="D119" s="4"/>
+      <c r="E119" s="4"/>
+      <c r="F119" s="4"/>
+      <c r="G119" s="4"/>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B120" s="4"/>
+      <c r="C120" s="4"/>
+      <c r="D120" s="4"/>
+      <c r="E120" s="4"/>
+      <c r="F120" s="4"/>
+      <c r="G120" s="4"/>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B121" s="4"/>
+      <c r="C121" s="4"/>
+      <c r="D121" s="4"/>
+      <c r="E121" s="4"/>
+      <c r="F121" s="4"/>
+      <c r="G121" s="4"/>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122" s="4"/>
+      <c r="B122" s="4"/>
+      <c r="C122" s="4"/>
+      <c r="D122" s="4"/>
+      <c r="E122" s="4"/>
+      <c r="F122" s="4"/>
+      <c r="G122" s="4"/>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B123" s="4"/>
+      <c r="C123" s="4"/>
+      <c r="D123" s="4"/>
+      <c r="E123" s="4"/>
+      <c r="F123" s="4"/>
+      <c r="G123" s="4"/>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B124" s="4"/>
+      <c r="C124" s="4"/>
+      <c r="D124" s="4"/>
+      <c r="E124" s="4"/>
+      <c r="F124" s="4"/>
+      <c r="G124" s="4"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
